--- a/sourceData/testdata_v9.xlsx
+++ b/sourceData/testdata_v9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudapg.sharepoint.com/sites/PPAcollaborationCGIAPG/Gedeelde documenten/General/Testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CB9F3F-6A36-4E26-AC7C-8D7CC8EB7521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B69B282-E8F8-4D17-B016-56BE4DEF7C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="8" activeTab="19" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="7" activeTab="18" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -273,13 +273,13 @@
     <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">connectedEmail_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">email_id   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person_id  </t>
+    <t>connectedEmail_id</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>Person_id</t>
   </si>
   <si>
     <t>PERSON_ID</t>
@@ -375,25 +375,22 @@
     <t>connectedPhone_id</t>
   </si>
   <si>
-    <t xml:space="preserve">MobilePhone_id  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RelationShip_id  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PersonFrom_id   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PersonTo_id  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">representive_id    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">contactPerson_id </t>
+    <t>MobilePhone_id</t>
+  </si>
+  <si>
+    <t>RelationShip_id</t>
+  </si>
+  <si>
+    <t>PersonFrom_id</t>
+  </si>
+  <si>
+    <t>PersonTo_id</t>
+  </si>
+  <si>
+    <t>representive_id</t>
+  </si>
+  <si>
+    <t>contactPerson_id</t>
   </si>
   <si>
     <t>Employer_id</t>
@@ -588,109 +585,70 @@
     <t>Gemeente Heerlen</t>
   </si>
   <si>
-    <t xml:space="preserve">hasEmailTillDate   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasEmailFromDate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pensionFundId   </t>
+    <t>hasEmailTillDate</t>
+  </si>
+  <si>
+    <t>hasEmailFromDate</t>
+  </si>
+  <si>
+    <t>pensionFundId</t>
   </si>
   <si>
     <t>fromValidityDate</t>
   </si>
   <si>
-    <t xml:space="preserve">id     </t>
+    <t>id</t>
   </si>
   <si>
     <t>tillValidityDate</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPhoneFromDate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPhoneTillDate   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fromValidityDate </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> valid     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">email        </t>
-  </si>
-  <si>
-    <t>pensionFundId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fromValidityDate   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tillValidityDate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validNumber   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">country </t>
+    <t>hasPhoneFromDate</t>
+  </si>
+  <si>
+    <t>hasPhoneTillDate</t>
+  </si>
+  <si>
+    <t>01-01-2027</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>validNumber</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
   <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">pensionFundId  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fromValidityDate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tillValidityDate </t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
     <t>'06123456789"</t>
   </si>
   <si>
-    <t xml:space="preserve">subject     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pensionFundId </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id       </t>
+    <t>subject</t>
   </si>
   <si>
     <t>startOfRelation</t>
   </si>
   <si>
-    <t xml:space="preserve">relationType    </t>
+    <t>relationType</t>
   </si>
   <si>
     <t>endOfRelation</t>
   </si>
   <si>
-    <t xml:space="preserve">id    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">representiveFromDate   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">representiveTillDate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pensionFundId    </t>
+    <t>representiveFromDate</t>
+  </si>
+  <si>
+    <t>representiveTillDate</t>
   </si>
 </sst>
 </file>
@@ -1262,9 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF9442-EC85-43AD-BFB6-10EDA29A80AA}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1275,13 +1231,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1315,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1338,7 +1294,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1358,7 +1314,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1378,7 +1334,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1395,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1415,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1435,10 +1391,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1455,10 +1411,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1475,10 +1431,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1495,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1515,10 +1471,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -1538,7 +1494,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -1581,16 +1537,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1607,16 +1563,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1636,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -1659,16 +1615,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -1685,16 +1641,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -1711,16 +1667,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -1737,16 +1693,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -1763,16 +1719,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -1789,16 +1745,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -1815,16 +1771,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1841,16 +1797,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1870,10 +1826,10 @@
         <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>80</v>
@@ -1893,13 +1849,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>80</v>
@@ -1919,13 +1875,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>80</v>
@@ -1945,13 +1901,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>80</v>
@@ -1974,10 +1930,10 @@
         <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>91</v>
@@ -2019,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2036,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2053,7 +2009,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -2070,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2087,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2104,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -2121,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2162,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -2179,7 +2135,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2188,10 +2144,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -2202,7 +2158,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2214,7 +2170,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -2225,19 +2181,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -2248,7 +2204,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -2257,10 +2213,10 @@
         <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -2271,19 +2227,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -2294,19 +2250,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -2317,19 +2273,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -2340,7 +2296,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -2349,10 +2305,10 @@
         <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -2363,19 +2319,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -2386,7 +2342,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -2395,10 +2351,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -2409,19 +2365,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -2432,7 +2388,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -2441,10 +2397,10 @@
         <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -2474,123 +2430,123 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2634,13 +2590,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2651,13 +2607,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -2668,13 +2624,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2693,7 +2649,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,22 +2663,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>177</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>178</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>180</v>
-      </c>
-      <c r="F1" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2691,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2749,22 +2705,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" t="s">
-        <v>184</v>
-      </c>
       <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2772,10 +2728,10 @@
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="D2">
         <v>1001</v>
@@ -2796,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC63A47-B7E1-4C47-8135-A40BA7FE31E2}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2809,22 +2765,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3023,8 +2979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2AA42-F598-4A93-9658-A2E9FD589387}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3038,25 +2994,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3067,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E2">
         <v>1001</v>
@@ -3092,7 +3048,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3105,19 +3061,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
-        <v>203</v>
-      </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3145,25 +3101,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3175,35 +3131,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751B186E-0562-4B2B-B41A-87B95CF58B79}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3521,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4056,7 +4014,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4073,12 +4031,15 @@
         <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>122</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4094,7 +4055,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4106,13 +4067,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/sourceData/testdata_v9.xlsx
+++ b/sourceData/testdata_v9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudapg.sharepoint.com/sites/PPAcollaborationCGIAPG/Gedeelde documenten/General/Testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B69B282-E8F8-4D17-B016-56BE4DEF7C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CD8A22-CB6A-4C78-913B-680CF6E36CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="7" activeTab="18" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="7" activeTab="19" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -627,10 +627,7 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>'06123456789"</t>
+    <t>31</t>
   </si>
   <si>
     <t>subject</t>
@@ -690,10 +687,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,7 +2094,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -2752,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC63A47-B7E1-4C47-8135-A40BA7FE31E2}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2979,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2AA42-F598-4A93-9658-A2E9FD589387}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3022,11 +3020,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>190</v>
+      <c r="D2" s="2">
+        <v>6123456789</v>
       </c>
       <c r="E2">
         <v>1001</v>
@@ -3061,7 +3059,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>177</v>
@@ -3101,13 +3099,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
       </c>
       <c r="D1" t="s">
         <v>177</v>
@@ -3149,10 +3147,10 @@
         <v>179</v>
       </c>
       <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>196</v>
       </c>
       <c r="D1" t="s">
         <v>177</v>

--- a/sourceData/testdata_v9.xlsx
+++ b/sourceData/testdata_v9.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudapg.sharepoint.com/sites/PPAcollaborationCGIAPG/Gedeelde documenten/General/Testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CD8A22-CB6A-4C78-913B-680CF6E36CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1228" documentId="8_{40F94615-F472-4BE3-AF41-616C2D8C2FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B8AAAE-3505-4D84-B350-2A9BB3EE758A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="7" activeTab="19" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="4" activeTab="16" xr2:uid="{1F7EA690-8867-48F7-AAAD-28D1179358B8}"/>
   </bookViews>
   <sheets>
     <sheet name="address" sheetId="2" r:id="rId1"/>
     <sheet name="role" sheetId="4" r:id="rId2"/>
     <sheet name="person" sheetId="1" r:id="rId3"/>
-    <sheet name="link_connectedEmail" sheetId="13" r:id="rId4"/>
-    <sheet name="link_person_role" sheetId="6" r:id="rId5"/>
-    <sheet name="customer" sheetId="7" r:id="rId6"/>
-    <sheet name="link_residentialperiod" sheetId="5" r:id="rId7"/>
-    <sheet name="link_connectedPhone" sheetId="22" r:id="rId8"/>
-    <sheet name="link_RelationShip" sheetId="23" r:id="rId9"/>
-    <sheet name="link_representive" sheetId="21" r:id="rId10"/>
-    <sheet name="residentialPeriod" sheetId="3" r:id="rId11"/>
-    <sheet name="savingsaccount" sheetId="9" r:id="rId12"/>
-    <sheet name="employee" sheetId="8" r:id="rId13"/>
-    <sheet name="workhistory" sheetId="10" r:id="rId14"/>
-    <sheet name="link_workhistory" sheetId="11" r:id="rId15"/>
-    <sheet name="employer" sheetId="12" r:id="rId16"/>
-    <sheet name="connectedEmail" sheetId="14" r:id="rId17"/>
-    <sheet name="connectedPhone" sheetId="15" r:id="rId18"/>
-    <sheet name="email" sheetId="16" r:id="rId19"/>
-    <sheet name="MobilePhone" sheetId="17" r:id="rId20"/>
-    <sheet name="contactPerson" sheetId="18" r:id="rId21"/>
-    <sheet name="RelationShip" sheetId="19" r:id="rId22"/>
-    <sheet name="representive" sheetId="20" r:id="rId23"/>
+    <sheet name="RelationShip" sheetId="19" r:id="rId4"/>
+    <sheet name="link_RelationShip" sheetId="23" r:id="rId5"/>
+    <sheet name="email" sheetId="16" r:id="rId6"/>
+    <sheet name="link_connectedEmail" sheetId="13" r:id="rId7"/>
+    <sheet name="connectedEmail" sheetId="14" r:id="rId8"/>
+    <sheet name="MobilePhone" sheetId="17" r:id="rId9"/>
+    <sheet name="link_connectedPhone" sheetId="22" r:id="rId10"/>
+    <sheet name="connectedPhone" sheetId="15" r:id="rId11"/>
+    <sheet name="link_person_role" sheetId="6" r:id="rId12"/>
+    <sheet name="customer" sheetId="7" r:id="rId13"/>
+    <sheet name="link_residentialperiod" sheetId="5" r:id="rId14"/>
+    <sheet name="contactPerson" sheetId="18" r:id="rId15"/>
+    <sheet name="link_representive" sheetId="21" r:id="rId16"/>
+    <sheet name="representive" sheetId="20" r:id="rId17"/>
+    <sheet name="residentialPeriod" sheetId="3" r:id="rId18"/>
+    <sheet name="savingsaccount" sheetId="9" r:id="rId19"/>
+    <sheet name="employee" sheetId="8" r:id="rId20"/>
+    <sheet name="workhistory" sheetId="10" r:id="rId21"/>
+    <sheet name="link_workhistory" sheetId="11" r:id="rId22"/>
+    <sheet name="employer" sheetId="12" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="207">
   <si>
     <t>ID</t>
   </si>
@@ -273,6 +273,69 @@
     <t>9</t>
   </si>
   <si>
+    <t>startOfRelation</t>
+  </si>
+  <si>
+    <t>relationType</t>
+  </si>
+  <si>
+    <t>endOfRelation</t>
+  </si>
+  <si>
+    <t>pensionFundId</t>
+  </si>
+  <si>
+    <t>fromValidityDate</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tillValidityDate</t>
+  </si>
+  <si>
+    <t>01-01-2024</t>
+  </si>
+  <si>
+    <t>colleagues</t>
+  </si>
+  <si>
+    <t>01-03-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superior </t>
+  </si>
+  <si>
+    <t>01-01-2025</t>
+  </si>
+  <si>
+    <t>01-05-2029</t>
+  </si>
+  <si>
+    <t>RelationShip_id</t>
+  </si>
+  <si>
+    <t>PersonFrom_id</t>
+  </si>
+  <si>
+    <t>PersonTo_id</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>kees.mees@apg.nl</t>
+  </si>
+  <si>
+    <t>bessie@apg.nl</t>
+  </si>
+  <si>
+    <t>kees@apg.nl</t>
+  </si>
+  <si>
     <t>connectedEmail_id</t>
   </si>
   <si>
@@ -282,6 +345,51 @@
     <t>Person_id</t>
   </si>
   <si>
+    <t>hasEmailTillDate</t>
+  </si>
+  <si>
+    <t>hasEmailFromDate</t>
+  </si>
+  <si>
+    <t>01-01-2027</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>01-01-2026</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>01-01-2028</t>
+  </si>
+  <si>
+    <t>validNumber</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>connectedPhone_id</t>
+  </si>
+  <si>
+    <t>MobilePhone_id</t>
+  </si>
+  <si>
+    <t>hasPhoneFromDate</t>
+  </si>
+  <si>
+    <t>hasPhoneTillDate</t>
+  </si>
+  <si>
     <t>PERSON_ID</t>
   </si>
   <si>
@@ -300,9 +408,6 @@
     <t>cNr01</t>
   </si>
   <si>
-    <t>01-01-2024</t>
-  </si>
-  <si>
     <t>3000</t>
   </si>
   <si>
@@ -333,9 +438,6 @@
     <t>cNr04</t>
   </si>
   <si>
-    <t>01-01-2023</t>
-  </si>
-  <si>
     <t>RESIDENTIALPERIOD_ID</t>
   </si>
   <si>
@@ -372,19 +474,7 @@
     <t>59</t>
   </si>
   <si>
-    <t>connectedPhone_id</t>
-  </si>
-  <si>
-    <t>MobilePhone_id</t>
-  </si>
-  <si>
-    <t>RelationShip_id</t>
-  </si>
-  <si>
-    <t>PersonFrom_id</t>
-  </si>
-  <si>
-    <t>PersonTo_id</t>
+    <t>subject</t>
   </si>
   <si>
     <t>representive_id</t>
@@ -396,6 +486,12 @@
     <t>Employer_id</t>
   </si>
   <si>
+    <t>representiveFromDate</t>
+  </si>
+  <si>
+    <t>representiveTillDate</t>
+  </si>
+  <si>
     <t>LIVESATFROM</t>
   </si>
   <si>
@@ -583,79 +679,24 @@
   </si>
   <si>
     <t>Gemeente Heerlen</t>
-  </si>
-  <si>
-    <t>hasEmailTillDate</t>
-  </si>
-  <si>
-    <t>hasEmailFromDate</t>
-  </si>
-  <si>
-    <t>pensionFundId</t>
-  </si>
-  <si>
-    <t>fromValidityDate</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>tillValidityDate</t>
-  </si>
-  <si>
-    <t>hasPhoneFromDate</t>
-  </si>
-  <si>
-    <t>hasPhoneTillDate</t>
-  </si>
-  <si>
-    <t>01-01-2027</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>validNumber</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>startOfRelation</t>
-  </si>
-  <si>
-    <t>relationType</t>
-  </si>
-  <si>
-    <t>endOfRelation</t>
-  </si>
-  <si>
-    <t>representiveFromDate</t>
-  </si>
-  <si>
-    <t>representiveTillDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,17 +725,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,7 +1053,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1215,27 +1259,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF9442-EC85-43AD-BFB6-10EDA29A80AA}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BCD7EA-443C-45EB-A492-CA3F4A71A299}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
+      <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1244,11 +1323,838 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31C36D0-7E79-4A24-BA1E-D468A1D688C9}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0C683A-2070-4C55-B505-D238524D3F8B}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE9360-19D5-4D5B-BCA2-6EEEFE106954}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA09FED-A0A8-4259-B662-713E6C371F33}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834BEF10-E414-4788-B24B-D76E237C607F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>161</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDF9442-EC85-43AD-BFB6-10EDA29A80AA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2">
+        <v>161</v>
+      </c>
+      <c r="C3" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>172</v>
+      </c>
+      <c r="B4" s="2">
+        <v>162</v>
+      </c>
+      <c r="C4" s="2">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751B186E-0562-4B2B-B41A-87B95CF58B79}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3582E873-F68C-475A-BCAB-26C7FF86CBBE}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="14.45"/>
@@ -1269,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1283,7 +2189,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1292,7 +2198,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1303,7 +2209,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1312,7 +2218,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1323,7 +2229,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1332,7 +2238,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1343,16 +2249,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1363,16 +2269,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1383,16 +2289,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1403,16 +2309,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1423,16 +2329,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1443,16 +2349,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1463,16 +2369,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -1483,7 +2389,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -1492,7 +2398,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -1507,12 +2413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A71F970-8A1C-433E-8072-F2B12B73EEC8}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1535,16 +2441,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1561,16 +2467,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -1587,16 +2493,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -1613,16 +2519,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -1639,16 +2545,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -1665,16 +2571,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -1691,16 +2597,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
@@ -1717,16 +2623,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
@@ -1743,16 +2649,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -1769,16 +2675,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1795,16 +2701,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1821,16 +2727,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -1847,16 +2753,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
@@ -1873,16 +2779,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>8</v>
@@ -1899,16 +2805,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -1925,16 +2831,16 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>8</v>
@@ -1948,12 +2854,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9DF40F-F7A5-495F-A4E8-444CF3F0FE1D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F4854A-F3A8-4F52-B777-E423BBF622D5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1973,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1990,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2007,7 +3102,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -2024,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -2041,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2058,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -2075,7 +3170,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -2089,12 +3184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA4BA71-5E6B-44EC-897C-77FF06FE4AE8}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -2116,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -2133,7 +3228,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2142,10 +3237,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -2156,7 +3251,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2168,7 +3263,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -2179,19 +3274,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -2202,7 +3297,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -2211,10 +3306,10 @@
         <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -2225,19 +3320,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -2248,19 +3343,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -2271,19 +3366,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -2294,19 +3389,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -2317,19 +3412,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -2340,19 +3435,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -2363,19 +3458,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -2386,19 +3481,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -2412,11 +3507,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F25186-E52F-4569-8A1E-6625A29954D0}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
@@ -2428,123 +3525,123 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2552,12 +3649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D009A17-09BF-4643-99E9-14AE38A9F64E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -2577,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2588,13 +3685,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2605,13 +3702,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -2622,544 +3719,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FE8D1F-AC64-43FF-9FD9-2898C9422C6E}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31C36D0-7E79-4A24-BA1E-D468A1D688C9}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2">
-        <v>1001</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC63A47-B7E1-4C47-8135-A40BA7FE31E2}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9DF40F-F7A5-495F-A4E8-444CF3F0FE1D}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2AA42-F598-4A93-9658-A2E9FD589387}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6123456789</v>
-      </c>
-      <c r="E2">
-        <v>1001</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834BEF10-E414-4788-B24B-D76E237C607F}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC9F4B-0D76-47C5-8BE3-EF6B21ABB385}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751B186E-0562-4B2B-B41A-87B95CF58B79}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3744,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -3515,27 +4087,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6FD19-928D-43E9-85D6-D7D101F80F9C}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC9F4B-0D76-47C5-8BE3-EF6B21ABB385}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>151</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>152</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3544,516 +4203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0C683A-2070-4C55-B505-D238524D3F8B}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE9360-19D5-4D5B-BCA2-6EEEFE106954}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97920BD-A0C0-4337-82B9-CC49F7AFA4CB}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA09FED-A0A8-4259-B662-713E6C371F33}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BCD7EA-443C-45EB-A492-CA3F4A71A299}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>122</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97920BD-A0C0-4337-82B9-CC49F7AFA4CB}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4064,14 +4218,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>152</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC63A47-B7E1-4C47-8135-A40BA7FE31E2}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>131</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2A745E0C-4A8D-43A6-BA00-69A46E457B61}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D1AA1861-F2CA-499B-B126-E5767B659D73}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{2233D572-77DD-4166-A7CB-24F4C3C8661D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA6FD19-928D-43E9-85D6-D7D101F80F9C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FE8D1F-AC64-43FF-9FD9-2898C9422C6E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>141</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>142</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE2AA42-F598-4A93-9658-A2E9FD589387}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6123456789</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6123456788</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6123456787</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4080,26 +4655,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e95a49da-bf12-4cce-8e32-73416dc73e69">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2b056947-149c-460e-a610-1b844961be42" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3CAB91F24620647B6426E1DE9B940B5" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="4068bc9fc0acc479e72b4aeb92e0ebb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e95a49da-bf12-4cce-8e32-73416dc73e69" xmlns:ns3="2b056947-149c-460e-a610-1b844961be42" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e5f2d9e6ded2f6f70d8955024b63ed9" ns2:_="" ns3:_="">
     <xsd:import namespace="e95a49da-bf12-4cce-8e32-73416dc73e69"/>
@@ -4328,8 +4883,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e95a49da-bf12-4cce-8e32-73416dc73e69">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2b056947-149c-460e-a610-1b844961be42" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF272AE-8C09-4754-A03D-D0F27E23CE9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D677424-489B-48F3-9A7C-16BA5D526F71}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4337,7 +4912,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D677424-489B-48F3-9A7C-16BA5D526F71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF272AE-8C09-4754-A03D-D0F27E23CE9E}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
